--- a/Code/Results/Cases/Case_0_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_185/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1672255408300458</v>
+        <v>0.3014822451252854</v>
       </c>
       <c r="D2">
-        <v>0.002750532323485544</v>
+        <v>0.0008071150410611239</v>
       </c>
       <c r="E2">
-        <v>0.02971872653347241</v>
+        <v>0.08742300873016973</v>
       </c>
       <c r="F2">
-        <v>3.767665741431614</v>
+        <v>6.488479599838342</v>
       </c>
       <c r="G2">
-        <v>0.000861612116352804</v>
+        <v>0.002740648245349902</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1173778839884072</v>
+        <v>0.2869176022684456</v>
       </c>
       <c r="K2">
-        <v>5.48480123292228</v>
+        <v>5.83696212664961</v>
       </c>
       <c r="L2">
-        <v>0.01847373014381581</v>
+        <v>0.05403137655040613</v>
       </c>
       <c r="M2">
-        <v>1.036482295198141</v>
+        <v>1.320918520843229</v>
       </c>
       <c r="N2">
-        <v>1.862440750842964</v>
+        <v>3.626605083532354</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1550870947389029</v>
+        <v>0.3004137547442696</v>
       </c>
       <c r="D3">
-        <v>0.002757537545205579</v>
+        <v>0.000721096781036934</v>
       </c>
       <c r="E3">
-        <v>0.02917375791011345</v>
+        <v>0.08769605131030289</v>
       </c>
       <c r="F3">
-        <v>3.571264806335861</v>
+        <v>6.477801074685971</v>
       </c>
       <c r="G3">
-        <v>0.0008725327537223998</v>
+        <v>0.002747390666001467</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1160825711386657</v>
+        <v>0.2879893418097836</v>
       </c>
       <c r="K3">
-        <v>4.863290723067166</v>
+        <v>5.723817180787705</v>
       </c>
       <c r="L3">
-        <v>0.01814854254125375</v>
+        <v>0.05395297221628415</v>
       </c>
       <c r="M3">
-        <v>0.9288892707315242</v>
+        <v>1.303538214084689</v>
       </c>
       <c r="N3">
-        <v>1.92271465392507</v>
+        <v>3.649992641181726</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1479216325454189</v>
+        <v>0.2998917496791051</v>
       </c>
       <c r="D4">
-        <v>0.002793024444748937</v>
+        <v>0.0006689668209638455</v>
       </c>
       <c r="E4">
-        <v>0.02887055884648682</v>
+        <v>0.08788727671919538</v>
       </c>
       <c r="F4">
-        <v>3.45836003339025</v>
+        <v>6.474164032545417</v>
       </c>
       <c r="G4">
-        <v>0.0008794018297214358</v>
+        <v>0.002751746420529888</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1154584156586083</v>
+        <v>0.2887389460800627</v>
       </c>
       <c r="K4">
-        <v>4.491863319680931</v>
+        <v>5.65773650135236</v>
       </c>
       <c r="L4">
-        <v>0.01795406885787276</v>
+        <v>0.05390451724019218</v>
       </c>
       <c r="M4">
-        <v>0.8647172268333634</v>
+        <v>1.293579438982093</v>
       </c>
       <c r="N4">
-        <v>1.961998002869265</v>
+        <v>3.665271115587295</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1450676713471921</v>
+        <v>0.299712717706754</v>
       </c>
       <c r="D5">
-        <v>0.002814320046025998</v>
+        <v>0.0006478725100969029</v>
       </c>
       <c r="E5">
-        <v>0.02875454456449589</v>
+        <v>0.08797114313364673</v>
       </c>
       <c r="F5">
-        <v>3.414118018717105</v>
+        <v>6.473414264369396</v>
       </c>
       <c r="G5">
-        <v>0.0008822447940324001</v>
+        <v>0.002753575908728324</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1152445844753203</v>
+        <v>0.2890674365232258</v>
       </c>
       <c r="K5">
-        <v>4.342772316898163</v>
+        <v>5.631658163607767</v>
       </c>
       <c r="L5">
-        <v>0.01787588341861701</v>
+        <v>0.05388468814648739</v>
       </c>
       <c r="M5">
-        <v>0.83899124250906</v>
+        <v>1.28970004619292</v>
       </c>
       <c r="N5">
-        <v>1.978552269607718</v>
+        <v>3.671727711005829</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1445975879575911</v>
+        <v>0.2996850238190234</v>
       </c>
       <c r="D6">
-        <v>0.002818241682870593</v>
+        <v>0.0006443781424021466</v>
       </c>
       <c r="E6">
-        <v>0.02873572618136677</v>
+        <v>0.08798542823874822</v>
       </c>
       <c r="F6">
-        <v>3.406873892209276</v>
+        <v>6.473333946446928</v>
       </c>
       <c r="G6">
-        <v>0.0008827195802921307</v>
+        <v>0.002753882990171244</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1152114558475361</v>
+        <v>0.2891233724933855</v>
       </c>
       <c r="K6">
-        <v>4.318144887000358</v>
+        <v>5.627379144716656</v>
       </c>
       <c r="L6">
-        <v>0.01786295849546127</v>
+        <v>0.05388139038726347</v>
       </c>
       <c r="M6">
-        <v>0.8347437176789612</v>
+        <v>1.289066670462766</v>
       </c>
       <c r="N6">
-        <v>1.981333355908141</v>
+        <v>3.672813731896888</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.147882883594292</v>
+        <v>0.2998891988066106</v>
       </c>
       <c r="D7">
-        <v>0.002793285219398811</v>
+        <v>0.0006686817633188014</v>
       </c>
       <c r="E7">
-        <v>0.02886896414837814</v>
+        <v>0.08788838370181473</v>
       </c>
       <c r="F7">
-        <v>3.457756420030904</v>
+        <v>6.474150957959026</v>
       </c>
       <c r="G7">
-        <v>0.0008794399906070341</v>
+        <v>0.002751770872572569</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1154553709646713</v>
+        <v>0.2887432830070047</v>
       </c>
       <c r="K7">
-        <v>4.489843805910596</v>
+        <v>5.657381361148111</v>
       </c>
       <c r="L7">
-        <v>0.01795301041296504</v>
+        <v>0.05390425016095257</v>
       </c>
       <c r="M7">
-        <v>0.8643686213934174</v>
+        <v>1.293526396267765</v>
       </c>
       <c r="N7">
-        <v>1.962219081383815</v>
+        <v>3.665357258814858</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1629765310274962</v>
+        <v>0.3010859938926274</v>
       </c>
       <c r="D8">
-        <v>0.002745830560780149</v>
+        <v>0.0007772995109505132</v>
       </c>
       <c r="E8">
-        <v>0.02952407491380349</v>
+        <v>0.08751226772843168</v>
       </c>
       <c r="F8">
-        <v>3.698246841907178</v>
+        <v>6.484190562750712</v>
       </c>
       <c r="G8">
-        <v>0.0008653451932989732</v>
+        <v>0.002742928345600019</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1168941339014893</v>
+        <v>0.287268135531356</v>
       </c>
       <c r="K8">
-        <v>5.268206133546073</v>
+        <v>5.797244379032861</v>
       </c>
       <c r="L8">
-        <v>0.01836037348719</v>
+        <v>0.05400440540528084</v>
       </c>
       <c r="M8">
-        <v>0.9989597033818569</v>
+        <v>1.314777624259065</v>
       </c>
       <c r="N8">
-        <v>1.882734505205178</v>
+        <v>3.634478224043875</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1951772335857953</v>
+        <v>0.3044979796193843</v>
       </c>
       <c r="D9">
-        <v>0.002952761714880126</v>
+        <v>0.0009968044925656727</v>
       </c>
       <c r="E9">
-        <v>0.03107623906833723</v>
+        <v>0.08696127162288114</v>
       </c>
       <c r="F9">
-        <v>4.239242736747684</v>
+        <v>6.527135071038543</v>
       </c>
       <c r="G9">
-        <v>0.000838874142316352</v>
+        <v>0.00272729203788713</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1212023089915206</v>
+        <v>0.2851019790195437</v>
       </c>
       <c r="K9">
-        <v>6.890252987276483</v>
+        <v>6.098560286447992</v>
       </c>
       <c r="L9">
-        <v>0.01921295757912578</v>
+        <v>0.05419851507762807</v>
       </c>
       <c r="M9">
-        <v>1.280480152668645</v>
+        <v>1.362127334269374</v>
       </c>
       <c r="N9">
-        <v>1.746242818496896</v>
+        <v>3.581231655616335</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2209327886338315</v>
+        <v>0.3076568594369746</v>
       </c>
       <c r="D10">
-        <v>0.003374288838292827</v>
+        <v>0.001163537097077949</v>
       </c>
       <c r="E10">
-        <v>0.03240887418182581</v>
+        <v>0.08666956459133957</v>
       </c>
       <c r="F10">
-        <v>4.692478077230163</v>
+        <v>6.573004474524907</v>
       </c>
       <c r="G10">
-        <v>0.0008199308886606512</v>
+        <v>0.002716830062840956</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1254798186989419</v>
+        <v>0.2839539197170211</v>
       </c>
       <c r="K10">
-        <v>8.164164530668529</v>
+        <v>6.336655626736786</v>
       </c>
       <c r="L10">
-        <v>0.01989267417013352</v>
+        <v>0.05434001879397865</v>
       </c>
       <c r="M10">
-        <v>1.502180519972072</v>
+        <v>1.400410167868046</v>
       </c>
       <c r="N10">
-        <v>1.659904558306494</v>
+        <v>3.546592906435407</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2332411214208463</v>
+        <v>0.3092362052614845</v>
       </c>
       <c r="D11">
-        <v>0.003648716832792331</v>
+        <v>0.001240903852441022</v>
       </c>
       <c r="E11">
-        <v>0.03306463474143939</v>
+        <v>0.0865612945734533</v>
       </c>
       <c r="F11">
-        <v>4.91437508184643</v>
+        <v>6.59701261134191</v>
       </c>
       <c r="G11">
-        <v>0.000811367880825971</v>
+        <v>0.002712290712136978</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1277224070869849</v>
+        <v>0.2835280539133578</v>
       </c>
       <c r="K11">
-        <v>8.767925793247798</v>
+        <v>6.44865521876369</v>
       </c>
       <c r="L11">
-        <v>0.02021914945408376</v>
+        <v>0.05440421602725287</v>
       </c>
       <c r="M11">
-        <v>1.607372912191067</v>
+        <v>1.41859308701676</v>
       </c>
       <c r="N11">
-        <v>1.624230054472292</v>
+        <v>3.531813928812142</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2380005706369417</v>
+        <v>0.3098547800186395</v>
       </c>
       <c r="D12">
-        <v>0.003767025047572758</v>
+        <v>0.001270446490158506</v>
       </c>
       <c r="E12">
-        <v>0.03332084586505246</v>
+        <v>0.08652379795106668</v>
       </c>
       <c r="F12">
-        <v>5.00102117637968</v>
+        <v>6.606558141225321</v>
       </c>
       <c r="G12">
-        <v>0.0008081276907230261</v>
+        <v>0.002710603183655292</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1286197934138684</v>
+        <v>0.2833806616287404</v>
       </c>
       <c r="K12">
-        <v>9.000677029187329</v>
+        <v>6.491600847204211</v>
       </c>
       <c r="L12">
-        <v>0.02034584270527606</v>
+        <v>0.0544285059869658</v>
       </c>
       <c r="M12">
-        <v>1.647940688493691</v>
+        <v>1.425589479868023</v>
       </c>
       <c r="N12">
-        <v>1.611297230543784</v>
+        <v>3.526358750242792</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2369709181450332</v>
+        <v>0.3097206459879231</v>
       </c>
       <c r="D13">
-        <v>0.003740860318400152</v>
+        <v>0.00126407259828909</v>
       </c>
       <c r="E13">
-        <v>0.03326530186254573</v>
+        <v>0.08653171788426661</v>
       </c>
       <c r="F13">
-        <v>4.98223758931303</v>
+        <v>6.6044821029231</v>
       </c>
       <c r="G13">
-        <v>0.0008088255102236923</v>
+        <v>0.002710965228572986</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.128424285680623</v>
+        <v>0.2834117879346607</v>
       </c>
       <c r="K13">
-        <v>8.950355458717752</v>
+        <v>6.482327941467474</v>
       </c>
       <c r="L13">
-        <v>0.02031841034019077</v>
+        <v>0.05442327552718051</v>
       </c>
       <c r="M13">
-        <v>1.639169121317011</v>
+        <v>1.424077740330063</v>
       </c>
       <c r="N13">
-        <v>1.614055873812617</v>
+        <v>3.527527326319344</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2336306245318269</v>
+        <v>0.3092866844733777</v>
       </c>
       <c r="D14">
-        <v>0.003658145717972516</v>
+        <v>0.001243329265433246</v>
       </c>
       <c r="E14">
-        <v>0.03308555046435124</v>
+        <v>0.08655813955700964</v>
       </c>
       <c r="F14">
-        <v>4.921448766676832</v>
+        <v>6.597788811834761</v>
       </c>
       <c r="G14">
-        <v>0.0008111012934149128</v>
+        <v>0.002712151249453396</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1277952355483123</v>
+        <v>0.2835156497311431</v>
       </c>
       <c r="K14">
-        <v>8.786987814323652</v>
+        <v>6.452177663383168</v>
       </c>
       <c r="L14">
-        <v>0.02022950745742769</v>
+        <v>0.05440621475237783</v>
       </c>
       <c r="M14">
-        <v>1.610695051164114</v>
+        <v>1.419166458625227</v>
       </c>
       <c r="N14">
-        <v>1.623154141983747</v>
+        <v>3.53136229258574</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.231597867190473</v>
+        <v>0.3090235428604586</v>
       </c>
       <c r="D15">
-        <v>0.003609436779896669</v>
+        <v>0.001230656161006038</v>
       </c>
       <c r="E15">
-        <v>0.03297649967215399</v>
+        <v>0.08657477948157144</v>
       </c>
       <c r="F15">
-        <v>4.884566498299051</v>
+        <v>6.593748195290374</v>
       </c>
       <c r="G15">
-        <v>0.0008124954191950832</v>
+        <v>0.002712881808163391</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1274163754141853</v>
+        <v>0.283581075265019</v>
       </c>
       <c r="K15">
-        <v>8.687477485274542</v>
+        <v>6.433779367490217</v>
       </c>
       <c r="L15">
-        <v>0.02017547000542219</v>
+        <v>0.05439576205648411</v>
       </c>
       <c r="M15">
-        <v>1.593352968255019</v>
+        <v>1.416172616412865</v>
       </c>
       <c r="N15">
-        <v>1.628804055045052</v>
+        <v>3.533729739905326</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.220141422840527</v>
+        <v>0.3075565134088549</v>
       </c>
       <c r="D16">
-        <v>0.003358221068488376</v>
+        <v>0.001158513871864386</v>
       </c>
       <c r="E16">
-        <v>0.03236707827224805</v>
+        <v>0.08667713100697583</v>
       </c>
       <c r="F16">
-        <v>4.678322204509158</v>
+        <v>6.57149891056406</v>
       </c>
       <c r="G16">
-        <v>0.0008204911541123463</v>
+        <v>0.002717131128120818</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1253396812764365</v>
+        <v>0.2839836917709135</v>
       </c>
       <c r="K16">
-        <v>8.125247118154107</v>
+        <v>6.329410703800818</v>
       </c>
       <c r="L16">
-        <v>0.01987173300467582</v>
+        <v>0.05433582027165684</v>
       </c>
       <c r="M16">
-        <v>1.495402256398336</v>
+        <v>1.399237364876186</v>
       </c>
       <c r="N16">
-        <v>1.662313216930471</v>
+        <v>3.547578486569506</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2132738015141626</v>
+        <v>0.3066930268295067</v>
       </c>
       <c r="D17">
-        <v>0.003226919144717399</v>
+        <v>0.001114665135439452</v>
       </c>
       <c r="E17">
-        <v>0.03200641424717077</v>
+        <v>0.0867461700254708</v>
       </c>
       <c r="F17">
-        <v>4.556061159687204</v>
+        <v>6.558656079307156</v>
       </c>
       <c r="G17">
-        <v>0.000825406630075109</v>
+        <v>0.0027197941230288</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1241453383990816</v>
+        <v>0.2842553810163508</v>
       </c>
       <c r="K17">
-        <v>7.786967770298133</v>
+        <v>6.266331066282021</v>
       </c>
       <c r="L17">
-        <v>0.01969020420709722</v>
+        <v>0.05429900688516742</v>
       </c>
       <c r="M17">
-        <v>1.436496874574871</v>
+        <v>1.389045153552956</v>
       </c>
       <c r="N17">
-        <v>1.683831005941443</v>
+        <v>3.556325257696059</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2093785333801321</v>
+        <v>0.3062097688054166</v>
       </c>
       <c r="D18">
-        <v>0.003159004875259441</v>
+        <v>0.001089585855396535</v>
       </c>
       <c r="E18">
-        <v>0.0318035804119674</v>
+        <v>0.08678817939509287</v>
       </c>
       <c r="F18">
-        <v>4.487194764202428</v>
+        <v>6.551564809334536</v>
       </c>
       <c r="G18">
-        <v>0.0008282393668975446</v>
+        <v>0.00272134651229935</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.123485937010841</v>
+        <v>0.2844207215346515</v>
       </c>
       <c r="K18">
-        <v>7.594637910165659</v>
+        <v>6.230396329349901</v>
       </c>
       <c r="L18">
-        <v>0.0195873786712184</v>
+        <v>0.05427781617353045</v>
       </c>
       <c r="M18">
-        <v>1.403017037617374</v>
+        <v>1.383255107427473</v>
       </c>
       <c r="N18">
-        <v>1.696542410253258</v>
+        <v>3.561448219912464</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2080686998037464</v>
+        <v>0.3060484456405845</v>
       </c>
       <c r="D19">
-        <v>0.003137248050606445</v>
+        <v>0.001081117902408835</v>
       </c>
       <c r="E19">
-        <v>0.03173567479334238</v>
+        <v>0.08680279837263249</v>
       </c>
       <c r="F19">
-        <v>4.464117665649979</v>
+        <v>6.549214523331841</v>
       </c>
       <c r="G19">
-        <v>0.0008291995755638807</v>
+        <v>0.002721875686477635</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1232672537787636</v>
+        <v>0.2844782607546961</v>
       </c>
       <c r="K19">
-        <v>7.529885291845801</v>
+        <v>6.218288942026732</v>
       </c>
       <c r="L19">
-        <v>0.01955281992054303</v>
+        <v>0.05427063836219581</v>
       </c>
       <c r="M19">
-        <v>1.391747145307292</v>
+        <v>1.381307090458122</v>
       </c>
       <c r="N19">
-        <v>1.700902172102303</v>
+        <v>3.563198558244295</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2139991086999515</v>
+        <v>0.3067835596678776</v>
       </c>
       <c r="D20">
-        <v>0.003240092519099846</v>
+        <v>0.001119318084350951</v>
       </c>
       <c r="E20">
-        <v>0.03204432520170108</v>
+        <v>0.08673858274078761</v>
       </c>
       <c r="F20">
-        <v>4.568923063504513</v>
+        <v>6.559992611561285</v>
       </c>
       <c r="G20">
-        <v>0.0008248828378580088</v>
+        <v>0.002719508501150273</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1242695895610311</v>
+        <v>0.2842255202213551</v>
       </c>
       <c r="K20">
-        <v>7.822742145388872</v>
+        <v>6.273010063952881</v>
       </c>
       <c r="L20">
-        <v>0.01970936033971959</v>
+        <v>0.05430292741862175</v>
       </c>
       <c r="M20">
-        <v>1.442725213925797</v>
+        <v>1.390122651299876</v>
       </c>
       <c r="N20">
-        <v>1.681505342453505</v>
+        <v>3.555384617681</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2346089574521528</v>
+        <v>0.3094135925000217</v>
       </c>
       <c r="D21">
-        <v>0.003682028184130104</v>
+        <v>0.00124941520394195</v>
       </c>
       <c r="E21">
-        <v>0.03313812700382002</v>
+        <v>0.08655028388233532</v>
       </c>
       <c r="F21">
-        <v>4.939229702982573</v>
+        <v>6.599742448485699</v>
       </c>
       <c r="G21">
-        <v>0.0008104328218058888</v>
+        <v>0.002711802034914088</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1279786472730606</v>
+        <v>0.2834847663636921</v>
       </c>
       <c r="K21">
-        <v>8.834855480129079</v>
+        <v>6.461019016003547</v>
       </c>
       <c r="L21">
-        <v>0.02025553205673702</v>
+        <v>0.05441122642352436</v>
       </c>
       <c r="M21">
-        <v>1.619037700424428</v>
+        <v>1.420606006820393</v>
       </c>
       <c r="N21">
-        <v>1.620465602666812</v>
+        <v>3.530232030258375</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2486609784020573</v>
+        <v>0.3112520439688495</v>
       </c>
       <c r="D22">
-        <v>0.00405625504101792</v>
+        <v>0.001335885211876331</v>
       </c>
       <c r="E22">
-        <v>0.03389941935168928</v>
+        <v>0.08644763272604905</v>
       </c>
       <c r="F22">
-        <v>5.196720463504448</v>
+        <v>6.628369653425267</v>
       </c>
       <c r="G22">
-        <v>0.0008009999399601881</v>
+        <v>0.002706948497615658</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1306867252064379</v>
+        <v>0.2830815151029284</v>
       </c>
       <c r="K22">
-        <v>9.520717016312176</v>
+        <v>6.587006848466899</v>
       </c>
       <c r="L22">
-        <v>0.02063070033314585</v>
+        <v>0.054481890990143</v>
       </c>
       <c r="M22">
-        <v>1.738609216423342</v>
+        <v>1.441175390134319</v>
       </c>
       <c r="N22">
-        <v>1.583966705002425</v>
+        <v>3.514617255419054</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2411028527644135</v>
+        <v>0.3102598729210371</v>
       </c>
       <c r="D23">
-        <v>0.003847751704624258</v>
+        <v>0.001289593347774343</v>
       </c>
       <c r="E23">
-        <v>0.03348856919118504</v>
+        <v>0.0865005550173521</v>
       </c>
       <c r="F23">
-        <v>5.057742520586743</v>
+        <v>6.612847650099127</v>
       </c>
       <c r="G23">
-        <v>0.0008060354492406697</v>
+        <v>0.00270952223199572</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1292133251549288</v>
+        <v>0.2832893333629016</v>
       </c>
       <c r="K23">
-        <v>9.152191192577391</v>
+        <v>6.519478780879808</v>
       </c>
       <c r="L23">
-        <v>0.02042857772182671</v>
+        <v>0.05444418490020109</v>
       </c>
       <c r="M23">
-        <v>1.674353339333692</v>
+        <v>1.430137776041462</v>
       </c>
       <c r="N23">
-        <v>1.603114251440886</v>
+        <v>3.522875562477381</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2136710331638056</v>
+        <v>0.30674258874744</v>
       </c>
       <c r="D24">
-        <v>0.003234113430819363</v>
+        <v>0.00111721408303822</v>
       </c>
       <c r="E24">
-        <v>0.03202717164671043</v>
+        <v>0.08674200573166146</v>
       </c>
       <c r="F24">
-        <v>4.563103790431001</v>
+        <v>6.559387455230024</v>
       </c>
       <c r="G24">
-        <v>0.0008251196228266993</v>
+        <v>0.002719637564156997</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.124213331160675</v>
+        <v>0.2842389918100352</v>
       </c>
       <c r="K24">
-        <v>7.806561895537413</v>
+        <v>6.269989459653914</v>
       </c>
       <c r="L24">
-        <v>0.01970069510457684</v>
+        <v>0.05430115502751143</v>
       </c>
       <c r="M24">
-        <v>1.439908188530268</v>
+        <v>1.389635297842474</v>
       </c>
       <c r="N24">
-        <v>1.682555718514166</v>
+        <v>3.555809587270602</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1861387984496616</v>
+        <v>0.3034606433566438</v>
       </c>
       <c r="D25">
-        <v>0.002856577206175714</v>
+        <v>0.0009365730433170683</v>
       </c>
       <c r="E25">
-        <v>0.03062492046017518</v>
+        <v>0.08709042304678505</v>
       </c>
       <c r="F25">
-        <v>4.084180454845722</v>
+        <v>6.513013359902033</v>
       </c>
       <c r="G25">
-        <v>0.0008459299521400943</v>
+        <v>0.002731340978344265</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1198581026071111</v>
+        <v>0.2856101504405117</v>
       </c>
       <c r="K25">
-        <v>6.438934226174695</v>
+        <v>6.014127468450113</v>
       </c>
       <c r="L25">
-        <v>0.01897462864647803</v>
+        <v>0.05414621918893303</v>
       </c>
       <c r="M25">
-        <v>1.202044263189194</v>
+        <v>1.34870679647311</v>
       </c>
       <c r="N25">
-        <v>1.780891610091999</v>
+        <v>3.59485125094146</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_185/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_185/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3014822451252854</v>
+        <v>0.1672255408297758</v>
       </c>
       <c r="D2">
-        <v>0.0008071150410611239</v>
+        <v>0.00275053232335587</v>
       </c>
       <c r="E2">
-        <v>0.08742300873016973</v>
+        <v>0.02971872653347063</v>
       </c>
       <c r="F2">
-        <v>6.488479599838342</v>
+        <v>3.767665741431614</v>
       </c>
       <c r="G2">
-        <v>0.002740648245349902</v>
+        <v>0.0008616121164176546</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2869176022684456</v>
+        <v>0.1173778839883433</v>
       </c>
       <c r="K2">
-        <v>5.83696212664961</v>
+        <v>5.484801232922337</v>
       </c>
       <c r="L2">
-        <v>0.05403137655040613</v>
+        <v>0.01847373014379183</v>
       </c>
       <c r="M2">
-        <v>1.320918520843229</v>
+        <v>1.036482295198155</v>
       </c>
       <c r="N2">
-        <v>3.626605083532354</v>
+        <v>1.862440750842964</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3004137547442696</v>
+        <v>0.1550870947391445</v>
       </c>
       <c r="D3">
-        <v>0.000721096781036934</v>
+        <v>0.002757537545315714</v>
       </c>
       <c r="E3">
-        <v>0.08769605131030289</v>
+        <v>0.02917375791011168</v>
       </c>
       <c r="F3">
-        <v>6.477801074685971</v>
+        <v>3.571264806335861</v>
       </c>
       <c r="G3">
-        <v>0.002747390666001467</v>
+        <v>0.0008725327538415422</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2879893418097836</v>
+        <v>0.1160825711386302</v>
       </c>
       <c r="K3">
-        <v>5.723817180787705</v>
+        <v>4.863290723067223</v>
       </c>
       <c r="L3">
-        <v>0.05395297221628415</v>
+        <v>0.01814854254116227</v>
       </c>
       <c r="M3">
-        <v>1.303538214084689</v>
+        <v>0.9288892707315171</v>
       </c>
       <c r="N3">
-        <v>3.649992641181726</v>
+        <v>1.922714653925041</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2998917496791051</v>
+        <v>0.1479216325449499</v>
       </c>
       <c r="D4">
-        <v>0.0006689668209638455</v>
+        <v>0.002793024444663672</v>
       </c>
       <c r="E4">
-        <v>0.08788727671919538</v>
+        <v>0.02887055884649836</v>
       </c>
       <c r="F4">
-        <v>6.474164032545417</v>
+        <v>3.458360033390193</v>
       </c>
       <c r="G4">
-        <v>0.002751746420529888</v>
+        <v>0.0008794018297276327</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2887389460800627</v>
+        <v>0.1154584156584981</v>
       </c>
       <c r="K4">
-        <v>5.65773650135236</v>
+        <v>4.491863319680874</v>
       </c>
       <c r="L4">
-        <v>0.05390451724019218</v>
+        <v>0.01795406885794737</v>
       </c>
       <c r="M4">
-        <v>1.293579438982093</v>
+        <v>0.8647172268333563</v>
       </c>
       <c r="N4">
-        <v>3.665271115587295</v>
+        <v>1.961998002869251</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.299712717706754</v>
+        <v>0.1450676713474195</v>
       </c>
       <c r="D5">
-        <v>0.0006478725100969029</v>
+        <v>0.002814320045889218</v>
       </c>
       <c r="E5">
-        <v>0.08797114313364673</v>
+        <v>0.02875454456451809</v>
       </c>
       <c r="F5">
-        <v>6.473414264369396</v>
+        <v>3.414118018717133</v>
       </c>
       <c r="G5">
-        <v>0.002753575908728324</v>
+        <v>0.0008822447940317977</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2890674365232258</v>
+        <v>0.1152445844753416</v>
       </c>
       <c r="K5">
-        <v>5.631658163607767</v>
+        <v>4.342772316897992</v>
       </c>
       <c r="L5">
-        <v>0.05388468814648739</v>
+        <v>0.01787588341870849</v>
       </c>
       <c r="M5">
-        <v>1.28970004619292</v>
+        <v>0.83899124250906</v>
       </c>
       <c r="N5">
-        <v>3.671727711005829</v>
+        <v>1.978552269607761</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2996850238190234</v>
+        <v>0.1445975879578185</v>
       </c>
       <c r="D6">
-        <v>0.0006443781424021466</v>
+        <v>0.002818241682868816</v>
       </c>
       <c r="E6">
-        <v>0.08798542823874822</v>
+        <v>0.028735726181365</v>
       </c>
       <c r="F6">
-        <v>6.473333946446928</v>
+        <v>3.406873892209276</v>
       </c>
       <c r="G6">
-        <v>0.002753882990171244</v>
+        <v>0.0008827195803496122</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2891233724933855</v>
+        <v>0.1152114558475787</v>
       </c>
       <c r="K6">
-        <v>5.627379144716656</v>
+        <v>4.318144887000415</v>
       </c>
       <c r="L6">
-        <v>0.05388139038726347</v>
+        <v>0.01786295849527031</v>
       </c>
       <c r="M6">
-        <v>1.289066670462766</v>
+        <v>0.8347437176789612</v>
       </c>
       <c r="N6">
-        <v>3.672813731896888</v>
+        <v>1.981333355908141</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2998891988066106</v>
+        <v>0.147882883594292</v>
       </c>
       <c r="D7">
-        <v>0.0006686817633188014</v>
+        <v>0.002793285219262032</v>
       </c>
       <c r="E7">
-        <v>0.08788838370181473</v>
+        <v>0.02886896414840034</v>
       </c>
       <c r="F7">
-        <v>6.474150957959026</v>
+        <v>3.457756420030876</v>
       </c>
       <c r="G7">
-        <v>0.002751770872572569</v>
+        <v>0.0008794399905448429</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2887432830070047</v>
+        <v>0.1154553709646322</v>
       </c>
       <c r="K7">
-        <v>5.657381361148111</v>
+        <v>4.489843805910596</v>
       </c>
       <c r="L7">
-        <v>0.05390425016095257</v>
+        <v>0.01795301041310804</v>
       </c>
       <c r="M7">
-        <v>1.293526396267765</v>
+        <v>0.8643686213934245</v>
       </c>
       <c r="N7">
-        <v>3.665357258814858</v>
+        <v>1.962219081383779</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3010859938926274</v>
+        <v>0.1629765310277804</v>
       </c>
       <c r="D8">
-        <v>0.0007772995109505132</v>
+        <v>0.002745830560790807</v>
       </c>
       <c r="E8">
-        <v>0.08751226772843168</v>
+        <v>0.02952407491377507</v>
       </c>
       <c r="F8">
-        <v>6.484190562750712</v>
+        <v>3.698246841907178</v>
       </c>
       <c r="G8">
-        <v>0.002742928345600019</v>
+        <v>0.0008653451931739621</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.287268135531356</v>
+        <v>0.1168941339014609</v>
       </c>
       <c r="K8">
-        <v>5.797244379032861</v>
+        <v>5.268206133546073</v>
       </c>
       <c r="L8">
-        <v>0.05400440540528084</v>
+        <v>0.01836037348715092</v>
       </c>
       <c r="M8">
-        <v>1.314777624259065</v>
+        <v>0.9989597033818711</v>
       </c>
       <c r="N8">
-        <v>3.634478224043875</v>
+        <v>1.882734505205235</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3044979796193843</v>
+        <v>0.1951772335861079</v>
       </c>
       <c r="D9">
-        <v>0.0009968044925656727</v>
+        <v>0.002952761714889007</v>
       </c>
       <c r="E9">
-        <v>0.08696127162288114</v>
+        <v>0.03107623906834789</v>
       </c>
       <c r="F9">
-        <v>6.527135071038543</v>
+        <v>4.239242736747684</v>
       </c>
       <c r="G9">
-        <v>0.00272729203788713</v>
+        <v>0.0008388741422460193</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2851019790195437</v>
+        <v>0.1212023089915419</v>
       </c>
       <c r="K9">
-        <v>6.098560286447992</v>
+        <v>6.890252987276369</v>
       </c>
       <c r="L9">
-        <v>0.05419851507762807</v>
+        <v>0.01921295757914088</v>
       </c>
       <c r="M9">
-        <v>1.362127334269374</v>
+        <v>1.28048015266863</v>
       </c>
       <c r="N9">
-        <v>3.581231655616335</v>
+        <v>1.746242818496867</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3076568594369746</v>
+        <v>0.2209327886335046</v>
       </c>
       <c r="D10">
-        <v>0.001163537097077949</v>
+        <v>0.003374288838358552</v>
       </c>
       <c r="E10">
-        <v>0.08666956459133957</v>
+        <v>0.0324088741818187</v>
       </c>
       <c r="F10">
-        <v>6.573004474524907</v>
+        <v>4.692478077230135</v>
       </c>
       <c r="G10">
-        <v>0.002716830062840956</v>
+        <v>0.0008199308887158886</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2839539197170211</v>
+        <v>0.12547981869902</v>
       </c>
       <c r="K10">
-        <v>6.336655626736786</v>
+        <v>8.164164530668643</v>
       </c>
       <c r="L10">
-        <v>0.05434001879397865</v>
+        <v>0.01989267417006513</v>
       </c>
       <c r="M10">
-        <v>1.400410167868046</v>
+        <v>1.502180519972086</v>
       </c>
       <c r="N10">
-        <v>3.546592906435407</v>
+        <v>1.659904558306451</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3092362052614845</v>
+        <v>0.2332411214208321</v>
       </c>
       <c r="D11">
-        <v>0.001240903852441022</v>
+        <v>0.003648716832605814</v>
       </c>
       <c r="E11">
-        <v>0.0865612945734533</v>
+        <v>0.03306463474145893</v>
       </c>
       <c r="F11">
-        <v>6.59701261134191</v>
+        <v>4.914375081846401</v>
       </c>
       <c r="G11">
-        <v>0.002712290712136978</v>
+        <v>0.0008113678807556529</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2835280539133578</v>
+        <v>0.1277224070869707</v>
       </c>
       <c r="K11">
-        <v>6.44865521876369</v>
+        <v>8.767925793247855</v>
       </c>
       <c r="L11">
-        <v>0.05440421602725287</v>
+        <v>0.02021914945405801</v>
       </c>
       <c r="M11">
-        <v>1.41859308701676</v>
+        <v>1.607372912191096</v>
       </c>
       <c r="N11">
-        <v>3.531813928812142</v>
+        <v>1.624230054472278</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3098547800186395</v>
+        <v>0.2380005706367427</v>
       </c>
       <c r="D12">
-        <v>0.001270446490158506</v>
+        <v>0.003767025047443084</v>
       </c>
       <c r="E12">
-        <v>0.08652379795106668</v>
+        <v>0.03332084586496364</v>
       </c>
       <c r="F12">
-        <v>6.606558141225321</v>
+        <v>5.001021176379737</v>
       </c>
       <c r="G12">
-        <v>0.002710603183655292</v>
+        <v>0.0008081276906690693</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2833806616287404</v>
+        <v>0.1286197934138968</v>
       </c>
       <c r="K12">
-        <v>6.491600847204211</v>
+        <v>9.000677029187273</v>
       </c>
       <c r="L12">
-        <v>0.0544285059869658</v>
+        <v>0.02034584270540485</v>
       </c>
       <c r="M12">
-        <v>1.425589479868023</v>
+        <v>1.647940688493676</v>
       </c>
       <c r="N12">
-        <v>3.526358750242792</v>
+        <v>1.611297230543741</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3097206459879231</v>
+        <v>0.2369709181452464</v>
       </c>
       <c r="D13">
-        <v>0.00126407259828909</v>
+        <v>0.003740860318549366</v>
       </c>
       <c r="E13">
-        <v>0.08653171788426661</v>
+        <v>0.03326530186258303</v>
       </c>
       <c r="F13">
-        <v>6.6044821029231</v>
+        <v>4.982237589313058</v>
       </c>
       <c r="G13">
-        <v>0.002710965228572986</v>
+        <v>0.0008088255102003708</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2834117879346607</v>
+        <v>0.1284242856806017</v>
       </c>
       <c r="K13">
-        <v>6.482327941467474</v>
+        <v>8.950355458718036</v>
       </c>
       <c r="L13">
-        <v>0.05442327552718051</v>
+        <v>0.02031841034009041</v>
       </c>
       <c r="M13">
-        <v>1.424077740330063</v>
+        <v>1.639169121317053</v>
       </c>
       <c r="N13">
-        <v>3.527527326319344</v>
+        <v>1.614055873812546</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3092866844733777</v>
+        <v>0.2336306245318411</v>
       </c>
       <c r="D14">
-        <v>0.001243329265433246</v>
+        <v>0.003658145718214101</v>
       </c>
       <c r="E14">
-        <v>0.08655813955700964</v>
+        <v>0.0330855504643246</v>
       </c>
       <c r="F14">
-        <v>6.597788811834761</v>
+        <v>4.92144876667686</v>
       </c>
       <c r="G14">
-        <v>0.002712151249453396</v>
+        <v>0.0008111012935521028</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2835156497311431</v>
+        <v>0.1277952355481631</v>
       </c>
       <c r="K14">
-        <v>6.452177663383168</v>
+        <v>8.786987814323652</v>
       </c>
       <c r="L14">
-        <v>0.05440621475237783</v>
+        <v>0.02022950745743479</v>
       </c>
       <c r="M14">
-        <v>1.419166458625227</v>
+        <v>1.610695051164114</v>
       </c>
       <c r="N14">
-        <v>3.53136229258574</v>
+        <v>1.62315414198379</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3090235428604586</v>
+        <v>0.2315978671907146</v>
       </c>
       <c r="D15">
-        <v>0.001230656161006038</v>
+        <v>0.003609436779523634</v>
       </c>
       <c r="E15">
-        <v>0.08657477948157144</v>
+        <v>0.03297649967212202</v>
       </c>
       <c r="F15">
-        <v>6.593748195290374</v>
+        <v>4.884566498299023</v>
       </c>
       <c r="G15">
-        <v>0.002712881808163391</v>
+        <v>0.0008124954191392556</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.283581075265019</v>
+        <v>0.1274163754142634</v>
       </c>
       <c r="K15">
-        <v>6.433779367490217</v>
+        <v>8.687477485274314</v>
       </c>
       <c r="L15">
-        <v>0.05439576205648411</v>
+        <v>0.02017547000520459</v>
       </c>
       <c r="M15">
-        <v>1.416172616412865</v>
+        <v>1.593352968255047</v>
       </c>
       <c r="N15">
-        <v>3.533729739905326</v>
+        <v>1.628804055045023</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3075565134088549</v>
+        <v>0.2201414228405127</v>
       </c>
       <c r="D16">
-        <v>0.001158513871864386</v>
+        <v>0.003358221068861411</v>
       </c>
       <c r="E16">
-        <v>0.08667713100697583</v>
+        <v>0.03236707827227647</v>
       </c>
       <c r="F16">
-        <v>6.57149891056406</v>
+        <v>4.678322204509186</v>
       </c>
       <c r="G16">
-        <v>0.002717131128120818</v>
+        <v>0.0008204911541865407</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2839836917709135</v>
+        <v>0.1253396812765217</v>
       </c>
       <c r="K16">
-        <v>6.329410703800818</v>
+        <v>8.125247118154277</v>
       </c>
       <c r="L16">
-        <v>0.05433582027165684</v>
+        <v>0.01987173300473977</v>
       </c>
       <c r="M16">
-        <v>1.399237364876186</v>
+        <v>1.495402256398322</v>
       </c>
       <c r="N16">
-        <v>3.547578486569506</v>
+        <v>1.662313216930528</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3066930268295067</v>
+        <v>0.2132738015139353</v>
       </c>
       <c r="D17">
-        <v>0.001114665135439452</v>
+        <v>0.003226919144708518</v>
       </c>
       <c r="E17">
-        <v>0.0867461700254708</v>
+        <v>0.03200641424716721</v>
       </c>
       <c r="F17">
-        <v>6.558656079307156</v>
+        <v>4.556061159687232</v>
       </c>
       <c r="G17">
-        <v>0.0027197941230288</v>
+        <v>0.0008254066300910355</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2842553810163508</v>
+        <v>0.1241453383990603</v>
       </c>
       <c r="K17">
-        <v>6.266331066282021</v>
+        <v>7.78696777029802</v>
       </c>
       <c r="L17">
-        <v>0.05429900688516742</v>
+        <v>0.01969020420714962</v>
       </c>
       <c r="M17">
-        <v>1.389045153552956</v>
+        <v>1.436496874574871</v>
       </c>
       <c r="N17">
-        <v>3.556325257696059</v>
+        <v>1.683831005941428</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3062097688054166</v>
+        <v>0.2093785333801605</v>
       </c>
       <c r="D18">
-        <v>0.001089585855396535</v>
+        <v>0.00315900487525056</v>
       </c>
       <c r="E18">
-        <v>0.08678817939509287</v>
+        <v>0.03180358041196385</v>
       </c>
       <c r="F18">
-        <v>6.551564809334536</v>
+        <v>4.487194764202457</v>
       </c>
       <c r="G18">
-        <v>0.00272134651229935</v>
+        <v>0.0008282393667466573</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2844207215346515</v>
+        <v>0.1234859370109262</v>
       </c>
       <c r="K18">
-        <v>6.230396329349901</v>
+        <v>7.594637910165545</v>
       </c>
       <c r="L18">
-        <v>0.05427781617353045</v>
+        <v>0.01958737867122728</v>
       </c>
       <c r="M18">
-        <v>1.383255107427473</v>
+        <v>1.403017037617388</v>
       </c>
       <c r="N18">
-        <v>3.561448219912464</v>
+        <v>1.696542410253258</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3060484456405845</v>
+        <v>0.2080686998037464</v>
       </c>
       <c r="D19">
-        <v>0.001081117902408835</v>
+        <v>0.003137248050602892</v>
       </c>
       <c r="E19">
-        <v>0.08680279837263249</v>
+        <v>0.03173567479333883</v>
       </c>
       <c r="F19">
-        <v>6.549214523331841</v>
+        <v>4.464117665649951</v>
       </c>
       <c r="G19">
-        <v>0.002721875686477635</v>
+        <v>0.0008291995755638807</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2844782607546961</v>
+        <v>0.1232672537787494</v>
       </c>
       <c r="K19">
-        <v>6.218288942026732</v>
+        <v>7.529885291845744</v>
       </c>
       <c r="L19">
-        <v>0.05427063836219581</v>
+        <v>0.01955281992050129</v>
       </c>
       <c r="M19">
-        <v>1.381307090458122</v>
+        <v>1.391747145307306</v>
       </c>
       <c r="N19">
-        <v>3.563198558244295</v>
+        <v>1.700902172102303</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3067835596678776</v>
+        <v>0.2139991087008326</v>
       </c>
       <c r="D20">
-        <v>0.001119318084350951</v>
+        <v>0.003240092519115834</v>
       </c>
       <c r="E20">
-        <v>0.08673858274078761</v>
+        <v>0.03204432520170997</v>
       </c>
       <c r="F20">
-        <v>6.559992611561285</v>
+        <v>4.568923063504485</v>
       </c>
       <c r="G20">
-        <v>0.002719508501150273</v>
+        <v>0.0008248828378018658</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2842255202213551</v>
+        <v>0.1242695895612655</v>
       </c>
       <c r="K20">
-        <v>6.273010063952881</v>
+        <v>7.822742145388759</v>
       </c>
       <c r="L20">
-        <v>0.05430292741862175</v>
+        <v>0.01970936033975246</v>
       </c>
       <c r="M20">
-        <v>1.390122651299876</v>
+        <v>1.442725213925783</v>
       </c>
       <c r="N20">
-        <v>3.555384617681</v>
+        <v>1.681505342453463</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3094135925000217</v>
+        <v>0.2346089574521528</v>
       </c>
       <c r="D21">
-        <v>0.00124941520394195</v>
+        <v>0.003682028184124775</v>
       </c>
       <c r="E21">
-        <v>0.08655028388233532</v>
+        <v>0.03313812700382002</v>
       </c>
       <c r="F21">
-        <v>6.599742448485699</v>
+        <v>4.939229702982573</v>
       </c>
       <c r="G21">
-        <v>0.002711802034914088</v>
+        <v>0.0008104328218056667</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2834847663636921</v>
+        <v>0.1279786472729896</v>
       </c>
       <c r="K21">
-        <v>6.461019016003547</v>
+        <v>8.834855480129022</v>
       </c>
       <c r="L21">
-        <v>0.05441122642352436</v>
+        <v>0.02025553205653363</v>
       </c>
       <c r="M21">
-        <v>1.420606006820393</v>
+        <v>1.619037700424428</v>
       </c>
       <c r="N21">
-        <v>3.530232030258375</v>
+        <v>1.620465602666826</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3112520439688495</v>
+        <v>0.2486609784020288</v>
       </c>
       <c r="D22">
-        <v>0.001335885211876331</v>
+        <v>0.004056255041165358</v>
       </c>
       <c r="E22">
-        <v>0.08644763272604905</v>
+        <v>0.03389941935168039</v>
       </c>
       <c r="F22">
-        <v>6.628369653425267</v>
+        <v>5.196720463504448</v>
       </c>
       <c r="G22">
-        <v>0.002706948497615658</v>
+        <v>0.000800999939958249</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2830815151029284</v>
+        <v>0.1306867252064379</v>
       </c>
       <c r="K22">
-        <v>6.587006848466899</v>
+        <v>9.520717016312176</v>
       </c>
       <c r="L22">
-        <v>0.054481890990143</v>
+        <v>0.02063070033299308</v>
       </c>
       <c r="M22">
-        <v>1.441175390134319</v>
+        <v>1.738609216423384</v>
       </c>
       <c r="N22">
-        <v>3.514617255419054</v>
+        <v>1.583966705002396</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3102598729210371</v>
+        <v>0.2411028527638877</v>
       </c>
       <c r="D23">
-        <v>0.001289593347774343</v>
+        <v>0.00384775170480367</v>
       </c>
       <c r="E23">
-        <v>0.0865005550173521</v>
+        <v>0.03348856919117615</v>
       </c>
       <c r="F23">
-        <v>6.612847650099127</v>
+        <v>5.057742520586714</v>
       </c>
       <c r="G23">
-        <v>0.00270952223199572</v>
+        <v>0.0008060354492441667</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2832893333629016</v>
+        <v>0.1292133251549998</v>
       </c>
       <c r="K23">
-        <v>6.519478780879808</v>
+        <v>9.152191192577448</v>
       </c>
       <c r="L23">
-        <v>0.05444418490020109</v>
+        <v>0.02042857772198392</v>
       </c>
       <c r="M23">
-        <v>1.430137776041462</v>
+        <v>1.674353339333649</v>
       </c>
       <c r="N23">
-        <v>3.522875562477381</v>
+        <v>1.603114251440914</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.30674258874744</v>
+        <v>0.2136710331638341</v>
       </c>
       <c r="D24">
-        <v>0.00111721408303822</v>
+        <v>0.003234113430728769</v>
       </c>
       <c r="E24">
-        <v>0.08674200573166146</v>
+        <v>0.0320271716466678</v>
       </c>
       <c r="F24">
-        <v>6.559387455230024</v>
+        <v>4.563103790430972</v>
       </c>
       <c r="G24">
-        <v>0.002719637564156997</v>
+        <v>0.0008251196228250133</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2842389918100352</v>
+        <v>0.1242133311606537</v>
       </c>
       <c r="K24">
-        <v>6.269989459653914</v>
+        <v>7.80656189553747</v>
       </c>
       <c r="L24">
-        <v>0.05430115502751143</v>
+        <v>0.01970069510447825</v>
       </c>
       <c r="M24">
-        <v>1.389635297842474</v>
+        <v>1.439908188530282</v>
       </c>
       <c r="N24">
-        <v>3.555809587270602</v>
+        <v>1.682555718514209</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3034606433566438</v>
+        <v>0.186138798449619</v>
       </c>
       <c r="D25">
-        <v>0.0009365730433170683</v>
+        <v>0.002856577206165056</v>
       </c>
       <c r="E25">
-        <v>0.08709042304678505</v>
+        <v>0.03062492046010235</v>
       </c>
       <c r="F25">
-        <v>6.513013359902033</v>
+        <v>4.084180454845693</v>
       </c>
       <c r="G25">
-        <v>0.002731340978344265</v>
+        <v>0.0008459299521970755</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2856101504405117</v>
+        <v>0.1198581026072034</v>
       </c>
       <c r="K25">
-        <v>6.014127468450113</v>
+        <v>6.438934226174752</v>
       </c>
       <c r="L25">
-        <v>0.05414621918893303</v>
+        <v>0.01897462864624977</v>
       </c>
       <c r="M25">
-        <v>1.34870679647311</v>
+        <v>1.202044263189194</v>
       </c>
       <c r="N25">
-        <v>3.59485125094146</v>
+        <v>1.780891610091984</v>
       </c>
       <c r="O25">
         <v>0</v>
